--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Desktop\OpenAg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Box\Projects\OpenAG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A1AB1F-BE6E-4016-AED1-1ED30C6E10B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF60F2B-9C4E-4581-AE5B-1D876B02E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="0" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name=" meta landiq dataframe" sheetId="1" r:id="rId1"/>
@@ -840,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B77C1AE-92DC-4DF9-900A-851A281BA66A}">
   <dimension ref="A6:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ReadMe.xlsx
+++ b/ReadMe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\armen\Box\Projects\OpenAG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF60F2B-9C4E-4581-AE5B-1D876B02E371}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{712D5F21-4995-4653-B7B9-BAB1ECBD33D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,6 @@
     <sheet name=" meta landiq dataframe" sheetId="1" r:id="rId1"/>
     <sheet name="landiq" sheetId="2" r:id="rId2"/>
     <sheet name="to do" sheetId="3" r:id="rId3"/>
-    <sheet name="questions" sheetId="4" r:id="rId4"/>
-    <sheet name="improvements" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="53">
   <si>
     <t>all datasets have been converted to crs 3310</t>
   </si>
@@ -75,9 +73,6 @@
     <t>We have identified 21 crop categories and compiled a list of all commodity crops from usda county reports to determine the most suitable proxy crops. This is listed in 'bridging between datasets (work in progress)' excel file.</t>
   </si>
   <si>
-    <t>preprocessing_usda_crops_bridge</t>
-  </si>
-  <si>
     <t>2 - remove duplicate crops</t>
   </si>
   <si>
@@ -111,30 +106,9 @@
     <t>hr_crop_analysis_results.pkl</t>
   </si>
   <si>
-    <t>improvements</t>
-  </si>
-  <si>
-    <t>to do</t>
-  </si>
-  <si>
     <t>take the weighted average instead of simple average for filling missing data</t>
   </si>
   <si>
-    <t>this is only for 2020</t>
-  </si>
-  <si>
-    <t>what do we do with tomatoes unspecified</t>
-  </si>
-  <si>
-    <t>what about grapes raisin</t>
-  </si>
-  <si>
-    <t>so are we setting the same price and yield for whole hydrologic region</t>
-  </si>
-  <si>
-    <t>if so how do we do that?</t>
-  </si>
-  <si>
     <t>retrieves the neighboring counties for each county</t>
   </si>
   <si>
@@ -165,36 +139,15 @@
     <t>figures of selected proxy crop of each openagag crop withing each hydrologic region</t>
   </si>
   <si>
-    <t>preprocess openag_landiq</t>
-  </si>
-  <si>
-    <t>groupby_HR</t>
-  </si>
-  <si>
-    <t>plot econ data</t>
-  </si>
-  <si>
-    <t>Additionally, we indicate whether economic data is available for each crop.</t>
-  </si>
-  <si>
     <t>processed_usda_crops_20.csv</t>
   </si>
   <si>
     <t>final_crop_economic_data.csv</t>
   </si>
   <si>
-    <t>meta_crop_economic_data.csv</t>
-  </si>
-  <si>
-    <t>add_additional_econ_data</t>
-  </si>
-  <si>
     <t>add young perennial and pasture econ data</t>
   </si>
   <si>
-    <t xml:space="preserve">process economic data to present, for each county, the price, yield, production, and acreage of each crop (sourced from USDA), along with land area (in acres) derived from LandIQ. </t>
-  </si>
-  <si>
     <t>fills missing price values using a hierarchical approach</t>
   </si>
   <si>
@@ -216,12 +169,6 @@
     <t>crop_econ_filler</t>
   </si>
   <si>
-    <t>They make up large percentage of grapes in tulare only.</t>
-  </si>
-  <si>
-    <t>move 5-yr average from 4 to 3</t>
-  </si>
-  <si>
     <t>transform usda data. usda data currenlt has crop type in rows and econ data in columns (price , yield production and acres). each year is a column. from 2018 to 2022. we calculate the 5-year average for each. and do additional preprocessing for exceptional crops.</t>
   </si>
   <si>
@@ -232,6 +179,24 @@
   </si>
   <si>
     <t xml:space="preserve">instead of </t>
+  </si>
+  <si>
+    <t>calculate average price, yield, production, and acreage of openag crops in each county from 2018 to 2022</t>
+  </si>
+  <si>
+    <t>postprocessing_spatial_data</t>
+  </si>
+  <si>
+    <t>preprocessing_proxy_crop_finder</t>
+  </si>
+  <si>
+    <t>preprocess_econ_filler</t>
+  </si>
+  <si>
+    <t>we're doing simple average. Maybe do weighted average over the years?</t>
+  </si>
+  <si>
+    <t>look at different type of tomatoes and grapes. I may be missing one</t>
   </si>
 </sst>
 </file>
@@ -278,18 +243,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -319,10 +278,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -346,12 +305,12 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>54336</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106034</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>99553</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>132593</xdr:rowOff>
     </xdr:to>
@@ -376,106 +335,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7194177" y="7102836"/>
-          <a:ext cx="2990670" cy="2935757"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>10718</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>39302</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE062B9F-E1E6-730C-9C96-83469A57A337}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1714500"/>
-          <a:ext cx="8545118" cy="8611802"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>10718</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>115502</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64DCF913-073C-F8E1-E96A-7C74F0AB66F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="2362200"/>
-          <a:ext cx="8545118" cy="8611802"/>
+          <a:off x="7194177" y="4868534"/>
+          <a:ext cx="5266764" cy="5170059"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,26 +655,26 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
@@ -840,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B77C1AE-92DC-4DF9-900A-851A281BA66A}">
   <dimension ref="A6:K120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -868,15 +729,15 @@
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -887,34 +748,34 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C21" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C22" s="6"/>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -925,39 +786,39 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
         <v>14</v>
-      </c>
-      <c r="D25" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C28" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -968,29 +829,29 @@
         <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H31" s="3"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C32" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -998,23 +859,18 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C37" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1038,45 +894,42 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C45" s="6"/>
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C46" s="6"/>
@@ -1089,51 +942,35 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C48" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>8</v>
-      </c>
-      <c r="B49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>9</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="120" spans="2:2" ht="18.75" x14ac:dyDescent="0.3">
@@ -1147,99 +984,34 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{317C317C-894E-4705-B3BD-F809A3BA6242}">
-  <dimension ref="A3:A7"/>
+  <dimension ref="A2:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1CA25D-03DA-418F-85B3-0F66CFB2F804}">
-  <dimension ref="A2:D12"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8FE2CF-B2A1-46EC-8E8C-B0170B926552}">
-  <dimension ref="A2:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
